--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -453,157 +453,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023 September</t>
+          <t>2023 October</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023 October</t>
+          <t>2023 November</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023 November</t>
+          <t>2023 December</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023 December</t>
+          <t>2024 January</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 January</t>
+          <t>2024 February</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024 February</t>
+          <t>2024 March</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 March</t>
+          <t>2024 April</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 April</t>
+          <t>2024 May</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024 May</t>
+          <t>2024 June</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024 June</t>
+          <t>2024 July</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024 July</t>
+          <t>2024 August</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024 August</t>
+          <t>2024 September</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>24</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
         <v>19</v>
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023 October</t>
+          <t>2023 November</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023 November</t>
+          <t>2023 December</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023 December</t>
+          <t>2024 January</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
@@ -492,118 +492,118 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 January</t>
+          <t>2024 February</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 February</t>
+          <t>2024 March</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024 March</t>
+          <t>2024 April</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 April</t>
+          <t>2024 May</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 May</t>
+          <t>2024 June</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024 June</t>
+          <t>2024 July</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024 July</t>
+          <t>2024 August</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024 August</t>
+          <t>2024 September</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024 September</t>
+          <t>2024 October</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023 November</t>
+          <t>2023 December</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023 December</t>
+          <t>2024 January</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,85 +479,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024 January</t>
+          <t>2024 February</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 February</t>
+          <t>2024 March</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 March</t>
+          <t>2024 April</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024 April</t>
+          <t>2024 May</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 May</t>
+          <t>2024 June</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 June</t>
+          <t>2024 July</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024 July</t>
+          <t>2024 August</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,40 +570,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024 August</t>
+          <t>2024 September</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024 September</t>
+          <t>2024 October</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024 October</t>
+          <t>2024 November</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/monthly_stats.xlsx
+++ b/spreadsheets/monthly_stats.xlsx
@@ -473,7 +473,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
@@ -512,7 +512,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -564,7 +564,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>19</v>
@@ -590,7 +590,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
